--- a/back-end/storage/reconciliation/1/reconciliation/initial.xlsx
+++ b/back-end/storage/reconciliation/1/reconciliation/initial.xlsx
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,6 +439,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -3388,8 +3391,8 @@
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="31">
-        <v>1.110005100024E12</v>
+      <c r="A35" s="35">
+        <v>1.11005100024E11</v>
       </c>
       <c r="B35" s="18">
         <v>23.0</v>
@@ -3430,22 +3433,22 @@
       <c r="K36" s="28"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39">
         <f t="shared" ref="J37:K37" si="1">SUM(J2:J36)</f>
         <v>427987285</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="39">
         <f t="shared" si="1"/>
         <v>85873.45</v>
       </c>

--- a/back-end/storage/reconciliation/1/reconciliation/initial.xlsx
+++ b/back-end/storage/reconciliation/1/reconciliation/initial.xlsx
@@ -6,23 +6,18 @@
     <sheet state="visible" name="PENDIENTES EXTRACTO" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="PENDIENTES CONTABLE" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'PENDIENTES EXTRACTO'!$A$2:$J$39</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="GC1ENcCm4v4IFfqjGTmQUBZ5x4D/aPrDDtSD/nQZMuU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="5I5UUX17h9+xhjx+u5623WHbTkjGUyq/mzmamjuzOmk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="50">
-  <si>
-    <t>INFORMACION INICIAL CARGUE BANCOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="49">
   <si>
     <t>CODIGO BANCO</t>
   </si>
@@ -120,6 +115,9 @@
     <t>COMISION RECAUDOS CAJA LOCAL</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>DEV CHEQUE CONSIG CAUSAL 14</t>
   </si>
   <si>
@@ -127,9 +125,6 @@
   </si>
   <si>
     <t>SIN MOVIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>TOTALES</t>
@@ -188,11 +183,10 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -200,9 +194,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -220,47 +219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC4BD97"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
-        <bgColor rgb="FFC4BD97"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -360,93 +331,92 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -663,10 +633,7 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -675,8 +642,8 @@
     <col customWidth="1" min="4" max="4" width="15.75"/>
     <col customWidth="1" min="5" max="5" width="15.5"/>
     <col customWidth="1" min="6" max="6" width="15.25"/>
-    <col customWidth="1" min="7" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="8" width="38.25"/>
+    <col customWidth="1" min="7" max="7" width="13.63"/>
+    <col customWidth="1" min="8" max="8" width="31.63"/>
     <col customWidth="1" min="9" max="9" width="18.38"/>
     <col customWidth="1" min="10" max="10" width="17.13"/>
     <col customWidth="1" min="11" max="11" width="13.38"/>
@@ -687,15 +654,33 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -713,365 +698,364 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="A2" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>217.53</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1057.8</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>217.53</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1339.5</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10" t="s">
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6764.0</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>8455.0</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10716.0</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>14730.43</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44032.0</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1057.8</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1339.5</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>6764.0</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>8455.0</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>10716.0</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="14">
         <v>0.0</v>
       </c>
       <c r="J9" s="14">
-        <v>14730.43</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
+        <v>147408.0</v>
+      </c>
+      <c r="K9" s="15">
+        <f>SUM(J2:J9)</f>
+        <v>190688.26</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15">
-        <v>44032.0</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>147408.0</v>
+      <c r="A10" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="14">
+        <v>280000.0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1090,30 +1074,32 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="A11" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="17">
-        <v>280000.0</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14">
+        <v>640056.0</v>
+      </c>
+      <c r="J11" s="14">
         <v>0.0</v>
       </c>
       <c r="K11" s="4"/>
@@ -1133,32 +1119,30 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="A12" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="17">
-        <v>640056.0</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1500000.0</v>
+      </c>
+      <c r="J12" s="14">
         <v>0.0</v>
       </c>
       <c r="K12" s="4"/>
@@ -1178,30 +1162,30 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1500000.0</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="14">
+        <v>2623865.0</v>
+      </c>
+      <c r="J13" s="14">
         <v>0.0</v>
       </c>
       <c r="K13" s="4"/>
@@ -1221,30 +1205,30 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="17">
-        <v>2623865.0</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2785000.0</v>
+      </c>
+      <c r="J14" s="14">
         <v>0.0</v>
       </c>
       <c r="K14" s="4"/>
@@ -1264,30 +1248,30 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44042.0</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="17">
-        <v>2785000.0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="14">
+        <v>5500000.0</v>
+      </c>
+      <c r="J15" s="14">
         <v>0.0</v>
       </c>
       <c r="K15" s="4"/>
@@ -1307,30 +1291,30 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15">
-        <v>44042.0</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="A16" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="17">
-        <v>5500000.0</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5600000.0</v>
+      </c>
+      <c r="J16" s="14">
         <v>0.0</v>
       </c>
       <c r="K16" s="4"/>
@@ -1350,30 +1334,30 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="A17" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="17">
-        <v>5600000.0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="14">
+        <v>9000000.0</v>
+      </c>
+      <c r="J17" s="14">
         <v>0.0</v>
       </c>
       <c r="K17" s="4"/>
@@ -1393,30 +1377,32 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="A18" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="17">
-        <v>9000000.0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1.3820806E7</v>
+      </c>
+      <c r="J18" s="14">
         <v>0.0</v>
       </c>
       <c r="K18" s="4"/>
@@ -1436,32 +1422,30 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="A19" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1.3820806E7</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2.0E7</v>
+      </c>
+      <c r="J19" s="14">
         <v>0.0</v>
       </c>
       <c r="K19" s="4"/>
@@ -1480,31 +1464,31 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E20" s="16" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="17">
-        <v>2.0E7</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2.2177133E7</v>
+      </c>
+      <c r="J20" s="14">
         <v>0.0</v>
       </c>
       <c r="K20" s="4"/>
@@ -1524,33 +1508,34 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="17">
-        <v>2.2177133E7</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="4"/>
+      <c r="A21" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12">
+        <v>44042.0</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="14">
+        <v>2.6E8</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="15">
+        <f>SUM(I10:I21)</f>
+        <v>343926860</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1567,29 +1552,29 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="A22" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12">
         <v>44042.0</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2.6E8</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.0</v>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>50.93</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1608,29 +1593,29 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15">
-        <v>44042.0</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>50.93</v>
+      <c r="A23" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>118.76</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1649,29 +1634,29 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>118.76</v>
+      <c r="A24" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>845.5</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1690,28 +1675,28 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="A25" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="14">
         <v>845.5</v>
       </c>
       <c r="K25" s="4"/>
@@ -1731,29 +1716,29 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>845.5</v>
+      <c r="A26" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="12">
+        <v>44042.0</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>2033.0</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1772,29 +1757,29 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="15">
-        <v>44042.0</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2033.0</v>
+      <c r="A27" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>3049.5</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1813,29 +1798,29 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>3049.5</v>
+      <c r="A28" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4450.0</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -1854,28 +1839,28 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="A29" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="14">
         <v>4450.0</v>
       </c>
       <c r="K29" s="4"/>
@@ -1895,29 +1880,29 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16" t="s">
+      <c r="A30" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12">
+        <v>44042.0</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>4450.0</v>
+      <c r="I30" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>10700.0</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -1936,31 +1921,33 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="15">
-        <v>44042.0</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="A31" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="12">
+        <v>44043.0</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>16050.0</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="17">
-        <v>10700.0</v>
-      </c>
-      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1977,31 +1964,34 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="15">
-        <v>44043.0</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="17">
-        <v>16050.0</v>
-      </c>
-      <c r="K32" s="4"/>
+      <c r="A32" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12">
+        <v>44026.0</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>7.9605033E7</v>
+      </c>
+      <c r="K32" s="15">
+        <f>SUM(J22:J32)</f>
+        <v>79647626.19</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2018,31 +2008,33 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="15">
-        <v>44026.0</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>7.9605033E7</v>
-      </c>
-      <c r="K33" s="4"/>
+      <c r="A33" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2.42057271E8</v>
+      </c>
+      <c r="D33" s="12">
+        <v>44034.0</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="14">
+        <v>180000.0</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2059,31 +2051,34 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <v>23.0</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="18">
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="17">
         <v>2.42057271E8</v>
       </c>
-      <c r="D34" s="15">
-        <v>44034.0</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16" t="s">
+      <c r="D34" s="12">
+        <v>43977.0</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="17">
-        <v>180000.0</v>
-      </c>
-      <c r="K34" s="4"/>
+      <c r="I34" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="14">
+        <v>289000.0</v>
+      </c>
+      <c r="K34" s="15">
+        <f>SUM(J33:J34)</f>
+        <v>469000</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2100,29 +2095,29 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8">
+      <c r="A35" s="17">
         <v>23.0</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="18">
-        <v>2.42057271E8</v>
-      </c>
-      <c r="D35" s="15">
-        <v>43977.0</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="17">
-        <v>289000.0</v>
+      <c r="B35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="17">
+        <v>2.6505663E8</v>
+      </c>
+      <c r="D35" s="18">
+        <v>44043.0</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0.0</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2141,30 +2136,22 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18">
-        <v>23.0</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="18">
-        <v>2.6505663E8</v>
-      </c>
-      <c r="D36" s="19">
-        <v>44043.0</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0.0</v>
-      </c>
+      <c r="A36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="14"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -2182,22 +2169,16 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2215,16 +2196,24 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21">
+        <f t="shared" ref="I38:J38" si="1">SUM(I2:I37)</f>
+        <v>343926860</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="1"/>
+        <v>80307314.45</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2242,24 +2231,16 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22">
-        <f t="shared" ref="I39:J39" si="1">SUM(I3:I38)</f>
-        <v>343926860</v>
-      </c>
-      <c r="J39" s="22">
-        <f t="shared" si="1"/>
-        <v>80307314.45</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2276,41 +2257,10 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$2:$J$39"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.35433070866141736" footer="0.0" header="0.0" left="0.8267716535433072" right="0.03937007874015748" top="0.7480314960629921"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2331,1124 +2281,1138 @@
     <col customWidth="1" min="5" max="8" width="10.63"/>
     <col customWidth="1" min="9" max="9" width="34.88"/>
     <col customWidth="1" min="10" max="10" width="13.25"/>
-    <col customWidth="1" min="11" max="26" width="10.63"/>
+    <col customWidth="1" min="11" max="11" width="10.63"/>
+    <col customWidth="1" min="12" max="12" width="19.0"/>
+    <col customWidth="1" min="13" max="26" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26">
+      <c r="H2" s="5"/>
+      <c r="I2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>217.53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="24">
         <v>1.11005100012E11</v>
       </c>
-      <c r="B2" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E3" s="6">
+        <v>44043.0</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="27" t="s">
+      <c r="J3" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1057.8</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>1339.5</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>6764.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>8455.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>10716.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="24">
+        <v>1.11005100012E11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="26">
+        <v>14730.43</v>
+      </c>
+      <c r="L8" s="28">
+        <f>SUM(K2:K8)</f>
+        <v>43280.26</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="28">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B3" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44043.0</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="26">
+        <v>280000.0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="26">
+        <v>640056.0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1500000.0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2000000.0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2623865.0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2785000.0</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="26">
+        <v>5500000.0</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="26">
+        <v>5600000.0</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="26">
+        <v>9000000.0</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1.3820806E7</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2.0E7</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="10">
+        <v>44042.0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2.2177133E7</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2.2177133E7</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="26">
+        <v>5.9883292E7</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2.6E8</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="28">
+        <f>SUM(J9:J23)</f>
+        <v>427987285</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10">
+        <v>44042.0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>50.93</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="26">
+        <v>118.76</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="28">
-        <v>1057.8</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="J26" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>845.5</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="29">
-        <v>1339.5</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B5" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="J27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="26">
+        <v>845.5</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10">
+        <v>44042.0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="28">
-        <v>6764.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="J28" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="26">
+        <v>2033.0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="24">
+        <v>1.11005100025E11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="28">
-        <v>8455.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="28">
-        <v>10716.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26">
-        <v>1.11005100012E11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="28">
-        <v>14730.43</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="26">
+      <c r="J29" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="26">
+        <v>3049.5</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="24">
         <v>1.11005100025E11</v>
       </c>
-      <c r="B9" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="28">
-        <v>280000.0</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="26">
+      <c r="B30" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="26">
+        <v>4450.0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="24">
         <v>1.11005100025E11</v>
       </c>
-      <c r="B10" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="28">
-        <v>640056.0</v>
-      </c>
-      <c r="K10" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="26">
+      <c r="B31" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="26">
+        <v>4450.0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="24">
         <v>1.11005100025E11</v>
       </c>
-      <c r="B11" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="28">
-        <v>1500000.0</v>
-      </c>
-      <c r="K11" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26">
+      <c r="B32" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="10">
+        <v>44042.0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="26">
+        <v>10700.0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="24">
         <v>1.11005100025E11</v>
       </c>
-      <c r="B12" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="28">
-        <v>2000000.0</v>
-      </c>
-      <c r="K12" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="28">
-        <v>2623865.0</v>
-      </c>
-      <c r="K13" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B14" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="28">
-        <v>2785000.0</v>
-      </c>
-      <c r="K14" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="28">
-        <v>5500000.0</v>
-      </c>
-      <c r="K15" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B16" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="28">
-        <v>5600000.0</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B17" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="28">
-        <v>9000000.0</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B18" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="28">
-        <v>1.3820806E7</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B19" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="28">
-        <v>2.0E7</v>
-      </c>
-      <c r="K19" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B20" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="13">
-        <v>44042.0</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="28">
-        <v>2.2177133E7</v>
-      </c>
-      <c r="K20" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B21" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="28">
-        <v>2.2177133E7</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B22" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="28">
-        <v>5.9883292E7</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B23" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="28">
-        <v>2.6E8</v>
-      </c>
-      <c r="K23" s="28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B24" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="13">
-        <v>44042.0</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="30" t="s">
+      <c r="B33" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="10">
+        <v>44043.0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="28">
-        <v>50.93</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B25" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="28">
-        <v>118.76</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B26" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="17">
-        <v>845.5</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B27" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="28">
-        <v>845.5</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B28" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="13">
-        <v>44042.0</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="28">
-        <v>2033.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B29" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="28">
-        <v>3049.5</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B30" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="28">
-        <v>4450.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B31" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="28">
-        <v>4450.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B32" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="13">
-        <v>44042.0</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="28">
-        <v>10700.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="26">
-        <v>1.11005100025E11</v>
-      </c>
-      <c r="B33" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="13">
-        <v>44043.0</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="28">
+      <c r="J33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="26">
         <v>16050.0</v>
       </c>
+      <c r="L33" s="28">
+        <f>SUM(K24:K33)</f>
+        <v>42593.19</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="31">
+      <c r="A34" s="30">
         <v>1.11005100003E11</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>23.0</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="C34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="17">
         <v>2.42057271E8</v>
       </c>
-      <c r="E34" s="32">
-        <v>44043.0</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34" t="s">
+      <c r="E34" s="31">
+        <v>44043.0</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="28">
+      <c r="J34" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="35">
+      <c r="A35" s="34">
         <v>1.11005100024E11</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>23.0</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="17">
         <v>2.6505663E8</v>
       </c>
-      <c r="E35" s="32">
-        <v>44043.0</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34" t="s">
+      <c r="E35" s="31">
+        <v>44043.0</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="28">
+      <c r="J35" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39">
+      <c r="A37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38">
         <f t="shared" ref="J37:K37" si="1">SUM(J2:J36)</f>
         <v>427987285</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="38">
         <f t="shared" si="1"/>
         <v>85873.45</v>
       </c>
